--- a/src/main/resources/templates/excel/TemplateTigerSnus.xlsx
+++ b/src/main/resources/templates/excel/TemplateTigerSnus.xlsx
@@ -7,129 +7,10 @@
     <workbookView windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Home Credit Indonesia" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="___xlnm.Database">"#REF!"</definedName>
-    <definedName name="___xlnm.Database_1">"#REF!"</definedName>
-    <definedName name="___xlnm.Database_2">"#REF!"</definedName>
-    <definedName name="___xlnm.Database_3">"#REF!"</definedName>
-    <definedName name="___xlnm.Print_Titles">NA()</definedName>
-    <definedName name="__xlnm.Database">"#REF!"</definedName>
-    <definedName name="__xlnm.Database_1">"#REF!"</definedName>
-    <definedName name="__xlnm.Database_2">"#REF!"</definedName>
-    <definedName name="__xlnm.Database_3">"#REF!"</definedName>
-    <definedName name="__xlnm.Print_Titles">NA()</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$7:$AP$125</definedName>
-    <definedName name="a">"'file://Deden/my documents/04 SALARY HK FUJI BIJAK PRESTASI/SALARY TAHUN 2002/03.OP.NSK/NSK MEI 2002.xls'#$resume.$#REF!$#REF!"</definedName>
-    <definedName name="a_4" localSheetId="0">#REF!</definedName>
-    <definedName name="a_4">#REF!</definedName>
-    <definedName name="a_4_1">NA()</definedName>
-    <definedName name="a_4_2">NA()</definedName>
-    <definedName name="a_4_3">NA()</definedName>
-    <definedName name="aa" localSheetId="0">#REF!</definedName>
-    <definedName name="aa">#REF!</definedName>
-    <definedName name="Absensi" localSheetId="0">#REF!</definedName>
-    <definedName name="Absensi">#REF!</definedName>
-    <definedName name="asli02" localSheetId="0">#REF!</definedName>
-    <definedName name="asli02">#REF!</definedName>
-    <definedName name="ASLI08">#REF!</definedName>
-    <definedName name="ASLI1">#REF!</definedName>
-    <definedName name="ASLI3">#REF!</definedName>
-    <definedName name="ASSKEMATIAN">#N/A</definedName>
-    <definedName name="ASTEK_AB">#N/A</definedName>
-    <definedName name="ASTEK_CR">#N/A</definedName>
-    <definedName name="ASTEK_DB">#N/A</definedName>
-    <definedName name="ASTEK_DF">#N/A</definedName>
-    <definedName name="ASTEK_EN">#N/A</definedName>
-    <definedName name="ASTEK_MA">#N/A</definedName>
-    <definedName name="Basic_Balikpapan" localSheetId="0">#REF!</definedName>
-    <definedName name="Basic_Balikpapan">#REF!</definedName>
-    <definedName name="Basic_Banjarmasin" localSheetId="0">#REF!</definedName>
-    <definedName name="Basic_Banjarmasin">#REF!</definedName>
-    <definedName name="Basic_Palangkaraya" localSheetId="0">#REF!</definedName>
-    <definedName name="Basic_Palangkaraya">#REF!</definedName>
-    <definedName name="Basic_Pontianak">#REF!</definedName>
-    <definedName name="Basic_samarinda">#REF!</definedName>
-    <definedName name="Basic_Sampit">#REF!</definedName>
-    <definedName name="DATA">#REF!</definedName>
-    <definedName name="DATA1">#REF!</definedName>
-    <definedName name="Database">#REF!</definedName>
-    <definedName name="DATABASPG">#REF!</definedName>
-    <definedName name="DOAB">#REF!</definedName>
-    <definedName name="Employee_Frezee">#REF!</definedName>
-    <definedName name="Excel_BuiltIn_Print_Area_3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn_Print_Area_3_1">NA()</definedName>
-    <definedName name="Excel_BuiltIn_Print_Area_3_2">NA()</definedName>
-    <definedName name="Excel_BuiltIn_Print_Area_3_3">NA()</definedName>
-    <definedName name="Excel_BuiltIn_Print_Area_9" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn_Print_Area_9">#REF!</definedName>
-    <definedName name="Excel_BuiltIn_Print_Titles_3" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn_Print_Titles_3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn_Print_Titles_3_1">NA()</definedName>
-    <definedName name="Excel_BuiltIn_Print_Titles_3_2">NA()</definedName>
-    <definedName name="Excel_BuiltIn_Print_Titles_3_3">NA()</definedName>
-    <definedName name="Frezee_Employee" localSheetId="0">#REF!</definedName>
-    <definedName name="Frezee_Employee">#REF!</definedName>
-    <definedName name="gaji" localSheetId="0">#REF!</definedName>
-    <definedName name="gaji">#REF!</definedName>
-    <definedName name="gaji_pokok" localSheetId="0">#REF!</definedName>
-    <definedName name="gaji_pokok">#REF!</definedName>
-    <definedName name="gaji_pokok_BR">#REF!</definedName>
-    <definedName name="Gaji_Pokok_BR1">#REF!</definedName>
-    <definedName name="JAKARTA">#REF!</definedName>
-    <definedName name="KEC.KERJA">#N/A</definedName>
-    <definedName name="M.M._THP">#N/A</definedName>
-    <definedName name="March" localSheetId="0">#REF!</definedName>
-    <definedName name="March">#REF!</definedName>
-    <definedName name="March_1">"#REF!"</definedName>
-    <definedName name="March_2">"#REF!"</definedName>
-    <definedName name="March_3">"#REF!"</definedName>
-    <definedName name="mei">#REF!</definedName>
-    <definedName name="NAME">#N/A</definedName>
-    <definedName name="NBP" localSheetId="0">#REF!</definedName>
-    <definedName name="NBP">#REF!</definedName>
-    <definedName name="NBPC" localSheetId="0">#REF!</definedName>
-    <definedName name="NBPC">#REF!</definedName>
-    <definedName name="NO">#N/A</definedName>
-    <definedName name="NO_INDUK">#N/A</definedName>
-    <definedName name="NO_KPA">#N/A</definedName>
-    <definedName name="npic" localSheetId="0">#REF!</definedName>
-    <definedName name="npic">#REF!</definedName>
-    <definedName name="posisi" localSheetId="0">#REF!</definedName>
-    <definedName name="posisi">#REF!</definedName>
-    <definedName name="Print_Area_MI">#N/A</definedName>
-    <definedName name="Print_Titles_MI">#N/A</definedName>
-    <definedName name="Quaker">NA()</definedName>
-    <definedName name="Quaker_1">NA()</definedName>
-    <definedName name="Quaker_2">NA()</definedName>
-    <definedName name="Quaker_3">NA()</definedName>
-    <definedName name="REMARKS">#N/A</definedName>
-    <definedName name="rlembur" localSheetId="0">#REF!</definedName>
-    <definedName name="rlembur">#REF!</definedName>
-    <definedName name="SALARY" localSheetId="0">#REF!</definedName>
-    <definedName name="SALARY">#REF!</definedName>
-    <definedName name="Table_Area" localSheetId="0">#REF!</definedName>
-    <definedName name="Table_Area">#REF!</definedName>
-    <definedName name="Tagihan_BPJS_Kesehatan">#REF!</definedName>
-    <definedName name="Tbl_Title">#REF!</definedName>
-    <definedName name="tdk">#REF!</definedName>
-    <definedName name="TES">#REF!</definedName>
-    <definedName name="THT_B.C">#N/A</definedName>
-    <definedName name="THT_M.C.">#N/A</definedName>
-    <definedName name="TOTAL">#N/A</definedName>
-    <definedName name="TUTI" localSheetId="0">#REF!</definedName>
-    <definedName name="TUTI">#REF!</definedName>
-    <definedName name="uang_harian" localSheetId="0">#REF!</definedName>
-    <definedName name="uang_harian">#REF!</definedName>
-    <definedName name="Upliner_BD_KUDO" localSheetId="0">#REF!</definedName>
-    <definedName name="Upliner_BD_KUDO">#REF!</definedName>
-    <definedName name="VAJA">NA()</definedName>
-    <definedName name="VAJA_1">NA()</definedName>
-    <definedName name="VAJA_2">NA()</definedName>
-    <definedName name="VAJA_3">NA()</definedName>
-    <definedName name="yl" localSheetId="0">#REF!</definedName>
-    <definedName name="yl">#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Home Credit Indonesia'!$A$7:$AP$125</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1610,7 +1491,7 @@
   <dimension ref="A1:AM126"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/src/main/resources/templates/excel/TemplateTigerSnus.xlsx
+++ b/src/main/resources/templates/excel/TemplateTigerSnus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
-    <sheet name="Home Credit Indonesia" sheetId="1" r:id="rId1"/>
+    <sheet name="TigerSnus" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Home Credit Indonesia'!$A$7:$AP$125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TigerSnus!$A$7:$AP$125</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1230,6 +1230,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1491,7 +1498,7 @@
   <dimension ref="A1:AM126"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
